--- a/PricerAndQutation/OptionPricer_v2_20180125.xlsx
+++ b/PricerAndQutation/OptionPricer_v2_20180125.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="602" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="602" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="quate_van" sheetId="6" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="208">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -743,6 +743,29 @@
   </si>
   <si>
     <t>RMB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>au9999</t>
+  </si>
+  <si>
+    <t>au9999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>l</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -750,14 +773,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="###,###,##0.0000"/>
     <numFmt numFmtId="177" formatCode="0.0000"/>
     <numFmt numFmtId="178" formatCode="###,###,##0"/>
     <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="###,###,##0.0"/>
-    <numFmt numFmtId="182" formatCode="###,###,##0.000"/>
+    <numFmt numFmtId="181" formatCode="###,###,##0.000"/>
+    <numFmt numFmtId="183" formatCode="0.000"/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -1571,21 +1595,12 @@
     <xf numFmtId="2" fontId="5" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="5" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="181" fontId="5" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1596,32 +1611,32 @@
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="179" fontId="7" fillId="10" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="7" fillId="10" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="7" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="20" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1629,10 +1644,13 @@
     <xf numFmtId="0" fontId="20" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1641,10 +1659,16 @@
     <xf numFmtId="0" fontId="9" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="182" fontId="5" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="7" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
@@ -1669,22 +1693,25 @@
   <volType type="realTimeData">
     <main first="wdf.rtq">
       <tp>
-        <v>3798</v>
+        <v>3782</v>
         <stp/>
         <stp>rb1810</stp>
         <stp>LastPrice</stp>
+        <tr r="P12" s="1"/>
         <tr r="P13" s="1"/>
-        <tr r="P12" s="1"/>
+        <tr r="P14" s="1"/>
+        <tr r="P15" s="1"/>
+        <tr r="P18" s="1"/>
       </tp>
       <tp>
-        <v>91.88</v>
+        <v>91.905000000000001</v>
         <stp/>
         <stp>T1806</stp>
         <stp>LastPrice</stp>
         <tr r="P11" s="1"/>
       </tp>
       <tp>
-        <v>3966</v>
+        <v>3940</v>
         <stp/>
         <stp>RB1805</stp>
         <stp>LastPrice</stp>
@@ -1985,10 +2012,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B1:R34"/>
+  <dimension ref="B1:R37"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S34" sqref="S34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25"/>
@@ -2514,7 +2541,7 @@
       <c r="M16" s="115">
         <v>0</v>
       </c>
-      <c r="N16" s="169">
+      <c r="N16" s="168">
         <v>237.5091337591839</v>
       </c>
       <c r="O16" s="115">
@@ -2565,7 +2592,7 @@
       <c r="M17" s="115">
         <v>0</v>
       </c>
-      <c r="N17" s="169">
+      <c r="N17" s="168">
         <v>74.781901825362638</v>
       </c>
       <c r="O17" s="115">
@@ -2839,7 +2866,7 @@
         <v>191</v>
       </c>
       <c r="D26" s="116">
-        <v>43125</v>
+        <v>43126</v>
       </c>
       <c r="E26" s="116">
         <v>43189</v>
@@ -2848,10 +2875,10 @@
         <v>3600</v>
       </c>
       <c r="G26" s="115">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H26" s="115">
-        <v>0.16164383561643836</v>
+        <v>0.15890410958904111</v>
       </c>
       <c r="I26" s="115">
         <v>0</v>
@@ -2860,7 +2887,7 @@
         <v>0.17</v>
       </c>
       <c r="K26" s="115">
-        <v>-34.836043803374082</v>
+        <v>33.735271741150655</v>
       </c>
       <c r="L26" s="115">
         <v>0</v>
@@ -2869,58 +2896,126 @@
         <v>0</v>
       </c>
       <c r="N26" s="167">
-        <v>34.836043803374082</v>
+        <v>33.735271741150655</v>
       </c>
       <c r="O26" s="115">
-        <v>3781</v>
+        <v>3783</v>
       </c>
       <c r="P26" s="115" t="s">
         <v>85</v>
       </c>
       <c r="Q26" s="115">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R26" s="115" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="27" spans="2:18">
-      <c r="B27" s="115"/>
-      <c r="C27" s="115"/>
-      <c r="D27" s="116"/>
-      <c r="E27" s="116"/>
-      <c r="F27" s="115"/>
-      <c r="G27" s="115"/>
-      <c r="H27" s="115"/>
-      <c r="I27" s="115"/>
-      <c r="J27" s="115"/>
-      <c r="K27" s="115"/>
-      <c r="L27" s="115"/>
-      <c r="M27" s="115"/>
-      <c r="N27" s="167"/>
-      <c r="O27" s="115"/>
-      <c r="P27" s="115"/>
-      <c r="Q27" s="115"/>
-      <c r="R27" s="115"/>
+      <c r="B27" s="115" t="s">
+        <v>160</v>
+      </c>
+      <c r="C27" s="115" t="s">
+        <v>191</v>
+      </c>
+      <c r="D27" s="116">
+        <v>43126</v>
+      </c>
+      <c r="E27" s="116">
+        <v>43189</v>
+      </c>
+      <c r="F27" s="115">
+        <v>3650</v>
+      </c>
+      <c r="G27" s="115">
+        <v>63</v>
+      </c>
+      <c r="H27" s="115">
+        <v>0.15890410958904111</v>
+      </c>
+      <c r="I27" s="115">
+        <v>0</v>
+      </c>
+      <c r="J27" s="115">
+        <v>0.17</v>
+      </c>
+      <c r="K27" s="115">
+        <v>47.491507792809216</v>
+      </c>
+      <c r="L27" s="115">
+        <v>0</v>
+      </c>
+      <c r="M27" s="115">
+        <v>0</v>
+      </c>
+      <c r="N27" s="167">
+        <v>47.491507792809216</v>
+      </c>
+      <c r="O27" s="115">
+        <v>3783</v>
+      </c>
+      <c r="P27" s="115" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q27" s="115">
+        <v>1</v>
+      </c>
+      <c r="R27" s="115" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="28" spans="2:18">
-      <c r="B28" s="115"/>
-      <c r="C28" s="115"/>
-      <c r="D28" s="116"/>
-      <c r="E28" s="116"/>
-      <c r="F28" s="115"/>
-      <c r="G28" s="115"/>
-      <c r="H28" s="115"/>
-      <c r="I28" s="115"/>
-      <c r="J28" s="115"/>
-      <c r="K28" s="115"/>
-      <c r="L28" s="115"/>
-      <c r="M28" s="115"/>
-      <c r="N28" s="167"/>
-      <c r="O28" s="115"/>
-      <c r="P28" s="115"/>
-      <c r="Q28" s="115"/>
-      <c r="R28" s="115"/>
+      <c r="B28" s="115" t="s">
+        <v>160</v>
+      </c>
+      <c r="C28" s="115" t="s">
+        <v>191</v>
+      </c>
+      <c r="D28" s="116">
+        <v>43126</v>
+      </c>
+      <c r="E28" s="116">
+        <v>43189</v>
+      </c>
+      <c r="F28" s="115">
+        <v>3700</v>
+      </c>
+      <c r="G28" s="115">
+        <v>63</v>
+      </c>
+      <c r="H28" s="115">
+        <v>0.15890410958904111</v>
+      </c>
+      <c r="I28" s="115">
+        <v>0</v>
+      </c>
+      <c r="J28" s="115">
+        <v>0.17</v>
+      </c>
+      <c r="K28" s="115">
+        <v>64.794771045201514</v>
+      </c>
+      <c r="L28" s="115">
+        <v>0</v>
+      </c>
+      <c r="M28" s="115">
+        <v>0</v>
+      </c>
+      <c r="N28" s="167">
+        <v>64.794771045201514</v>
+      </c>
+      <c r="O28" s="115">
+        <v>3783</v>
+      </c>
+      <c r="P28" s="115" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q28" s="115">
+        <v>1</v>
+      </c>
+      <c r="R28" s="115" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="29" spans="2:18">
       <c r="B29" s="115"/>
@@ -2943,98 +3038,411 @@
     </row>
     <row r="30" spans="2:18">
       <c r="B30" s="114"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="49"/>
-      <c r="J30" s="49"/>
-      <c r="K30" s="49"/>
-      <c r="L30" s="49"/>
-      <c r="M30" s="49"/>
-      <c r="N30" s="49"/>
-      <c r="O30" s="49"/>
-      <c r="P30" s="49"/>
+      <c r="C30" s="49" t="s">
+        <v>185</v>
+      </c>
+      <c r="D30" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="E30" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="49" t="s">
+        <v>188</v>
+      </c>
+      <c r="G30" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="J30" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="K30" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="L30" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="M30" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="N30" s="49" t="s">
+        <v>186</v>
+      </c>
+      <c r="O30" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="P30" s="49" t="s">
+        <v>23</v>
+      </c>
       <c r="Q30" s="49"/>
-      <c r="R30" s="49"/>
+      <c r="R30" s="49" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="31" spans="2:18">
       <c r="B31" s="115"/>
-      <c r="C31" s="115"/>
-      <c r="D31" s="116"/>
-      <c r="E31" s="116"/>
-      <c r="F31" s="115"/>
-      <c r="G31" s="115"/>
-      <c r="H31" s="115"/>
-      <c r="I31" s="115"/>
-      <c r="J31" s="115"/>
-      <c r="K31" s="115"/>
-      <c r="L31" s="115"/>
-      <c r="M31" s="115"/>
-      <c r="N31" s="167"/>
-      <c r="O31" s="115"/>
-      <c r="P31" s="115"/>
-      <c r="Q31" s="115"/>
-      <c r="R31" s="115"/>
+      <c r="C31" s="115" t="s">
+        <v>202</v>
+      </c>
+      <c r="D31" s="116">
+        <v>43126</v>
+      </c>
+      <c r="E31" s="116">
+        <v>43307</v>
+      </c>
+      <c r="F31" s="115">
+        <v>100</v>
+      </c>
+      <c r="G31" s="115">
+        <v>181</v>
+      </c>
+      <c r="H31" s="115">
+        <v>0.49589041095890413</v>
+      </c>
+      <c r="I31" s="115">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="J31" s="115">
+        <v>0.12</v>
+      </c>
+      <c r="K31" s="115">
+        <v>-4.3035974084431246</v>
+      </c>
+      <c r="L31" s="115">
+        <v>0</v>
+      </c>
+      <c r="M31" s="115">
+        <v>0</v>
+      </c>
+      <c r="N31" s="167">
+        <v>4.3035974084431246</v>
+      </c>
+      <c r="O31" s="115">
+        <v>100</v>
+      </c>
+      <c r="P31" s="115" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q31" s="115">
+        <v>-1</v>
+      </c>
+      <c r="R31" s="115" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="32" spans="2:18">
       <c r="B32" s="115"/>
-      <c r="C32" s="115"/>
-      <c r="D32" s="116"/>
-      <c r="E32" s="116"/>
-      <c r="F32" s="115"/>
-      <c r="G32" s="115"/>
-      <c r="H32" s="115"/>
-      <c r="I32" s="115"/>
-      <c r="J32" s="115"/>
-      <c r="K32" s="115"/>
-      <c r="L32" s="115"/>
-      <c r="M32" s="115"/>
-      <c r="N32" s="167"/>
-      <c r="O32" s="115"/>
-      <c r="P32" s="115"/>
-      <c r="Q32" s="115"/>
-      <c r="R32" s="115"/>
+      <c r="C32" s="115" t="s">
+        <v>202</v>
+      </c>
+      <c r="D32" s="116">
+        <v>43126</v>
+      </c>
+      <c r="E32" s="116">
+        <v>43491</v>
+      </c>
+      <c r="F32" s="115">
+        <v>100</v>
+      </c>
+      <c r="G32" s="115">
+        <v>365</v>
+      </c>
+      <c r="H32" s="115">
+        <v>1</v>
+      </c>
+      <c r="I32" s="115">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="J32" s="115">
+        <v>0.12</v>
+      </c>
+      <c r="K32" s="115">
+        <v>-6.7202737777385977</v>
+      </c>
+      <c r="L32" s="115">
+        <v>0</v>
+      </c>
+      <c r="M32" s="115">
+        <v>0</v>
+      </c>
+      <c r="N32" s="167">
+        <v>6.7202737777385977</v>
+      </c>
+      <c r="O32" s="115">
+        <v>100</v>
+      </c>
+      <c r="P32" s="115" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q32" s="115">
+        <v>-1</v>
+      </c>
+      <c r="R32" s="115" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="33" spans="2:18">
-      <c r="B33" s="115"/>
-      <c r="C33" s="115"/>
-      <c r="D33" s="116"/>
-      <c r="E33" s="116"/>
-      <c r="F33" s="115"/>
-      <c r="G33" s="115"/>
-      <c r="H33" s="115"/>
-      <c r="I33" s="115"/>
-      <c r="J33" s="115"/>
-      <c r="K33" s="115"/>
-      <c r="L33" s="115"/>
-      <c r="M33" s="115"/>
-      <c r="N33" s="167"/>
-      <c r="O33" s="115"/>
-      <c r="P33" s="115"/>
-      <c r="Q33" s="115"/>
-      <c r="R33" s="115"/>
+      <c r="B33" s="114"/>
+      <c r="C33" s="49" t="s">
+        <v>185</v>
+      </c>
+      <c r="D33" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="E33" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="49" t="s">
+        <v>188</v>
+      </c>
+      <c r="G33" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="I33" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="J33" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="K33" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="L33" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="M33" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="N33" s="49" t="s">
+        <v>186</v>
+      </c>
+      <c r="O33" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="P33" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q33" s="49"/>
+      <c r="R33" s="49" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="34" spans="2:18">
-      <c r="B34" s="115"/>
-      <c r="C34" s="115"/>
-      <c r="D34" s="116"/>
-      <c r="E34" s="116"/>
-      <c r="F34" s="115"/>
-      <c r="G34" s="115"/>
-      <c r="H34" s="115"/>
-      <c r="I34" s="115"/>
-      <c r="J34" s="115"/>
-      <c r="K34" s="115"/>
-      <c r="L34" s="115"/>
-      <c r="M34" s="115"/>
-      <c r="N34" s="167"/>
-      <c r="O34" s="115"/>
-      <c r="P34" s="115"/>
-      <c r="Q34" s="115"/>
-      <c r="R34" s="115"/>
+      <c r="B34" s="115" t="s">
+        <v>160</v>
+      </c>
+      <c r="C34" s="115" t="s">
+        <v>202</v>
+      </c>
+      <c r="D34" s="116">
+        <v>43126</v>
+      </c>
+      <c r="E34" s="116">
+        <v>43307</v>
+      </c>
+      <c r="F34" s="115">
+        <v>100</v>
+      </c>
+      <c r="G34" s="115">
+        <v>181</v>
+      </c>
+      <c r="H34" s="115">
+        <v>0.49589041095890413</v>
+      </c>
+      <c r="I34" s="115">
+        <v>0</v>
+      </c>
+      <c r="J34" s="115">
+        <v>0.12</v>
+      </c>
+      <c r="K34" s="115">
+        <v>-3.3369347576114805</v>
+      </c>
+      <c r="L34" s="115">
+        <v>0</v>
+      </c>
+      <c r="M34" s="115">
+        <v>0</v>
+      </c>
+      <c r="N34" s="167">
+        <v>3.3369347576114805</v>
+      </c>
+      <c r="O34" s="115">
+        <v>100</v>
+      </c>
+      <c r="P34" s="115" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q34" s="115">
+        <v>-1</v>
+      </c>
+      <c r="R34" s="115" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18">
+      <c r="B35" s="115" t="s">
+        <v>160</v>
+      </c>
+      <c r="C35" s="115" t="s">
+        <v>202</v>
+      </c>
+      <c r="D35" s="116">
+        <v>43126</v>
+      </c>
+      <c r="E35" s="116">
+        <v>43491</v>
+      </c>
+      <c r="F35" s="115">
+        <v>100</v>
+      </c>
+      <c r="G35" s="115">
+        <v>365</v>
+      </c>
+      <c r="H35" s="115">
+        <v>1</v>
+      </c>
+      <c r="I35" s="115">
+        <v>0</v>
+      </c>
+      <c r="J35" s="115">
+        <v>0.12</v>
+      </c>
+      <c r="K35" s="115">
+        <v>-4.6896983400314838</v>
+      </c>
+      <c r="L35" s="115">
+        <v>0</v>
+      </c>
+      <c r="M35" s="115">
+        <v>0</v>
+      </c>
+      <c r="N35" s="167">
+        <v>4.6896983400314838</v>
+      </c>
+      <c r="O35" s="115">
+        <v>100</v>
+      </c>
+      <c r="P35" s="115" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q35" s="115">
+        <v>-1</v>
+      </c>
+      <c r="R35" s="115" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="2:18">
+      <c r="B36" s="114"/>
+      <c r="C36" s="49" t="s">
+        <v>185</v>
+      </c>
+      <c r="D36" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="E36" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="49" t="s">
+        <v>188</v>
+      </c>
+      <c r="G36" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="I36" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="J36" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="K36" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="L36" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="M36" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="N36" s="49" t="s">
+        <v>186</v>
+      </c>
+      <c r="O36" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="P36" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q36" s="49"/>
+      <c r="R36" s="49" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18">
+      <c r="B37" s="115" t="s">
+        <v>160</v>
+      </c>
+      <c r="C37" s="115" t="s">
+        <v>191</v>
+      </c>
+      <c r="D37" s="116">
+        <v>43126</v>
+      </c>
+      <c r="E37" s="116">
+        <v>43200</v>
+      </c>
+      <c r="F37" s="115">
+        <v>3780</v>
+      </c>
+      <c r="G37" s="115">
+        <v>74</v>
+      </c>
+      <c r="H37" s="115">
+        <v>0.18356164383561643</v>
+      </c>
+      <c r="I37" s="115">
+        <v>0</v>
+      </c>
+      <c r="J37" s="115">
+        <v>0.17</v>
+      </c>
+      <c r="K37" s="115">
+        <v>112.33674144451106</v>
+      </c>
+      <c r="L37" s="115">
+        <v>0</v>
+      </c>
+      <c r="M37" s="115">
+        <v>0</v>
+      </c>
+      <c r="N37" s="167">
+        <v>112.33674144451106</v>
+      </c>
+      <c r="O37" s="115">
+        <v>3774</v>
+      </c>
+      <c r="P37" s="115" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q37" s="115">
+        <v>1</v>
+      </c>
+      <c r="R37" s="115" t="s">
+        <v>151</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3326,7 +3734,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:T36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="17" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B22" sqref="B22:E34"/>
     </sheetView>
@@ -3343,75 +3751,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:20" ht="14.25" thickBot="1">
-      <c r="B1" s="182" t="s">
+      <c r="B1" s="186" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="182"/>
+      <c r="C1" s="186"/>
     </row>
     <row r="2" spans="2:20" ht="12" thickTop="1"/>
     <row r="3" spans="2:20" ht="12.75" thickBot="1">
-      <c r="B3" s="181" t="s">
+      <c r="B3" s="187" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="181"/>
-      <c r="D3" s="181"/>
-      <c r="E3" s="181"/>
-      <c r="G3" s="178" t="s">
+      <c r="C3" s="187"/>
+      <c r="D3" s="187"/>
+      <c r="E3" s="187"/>
+      <c r="G3" s="190" t="s">
         <v>120</v>
       </c>
-      <c r="H3" s="178"/>
-      <c r="I3" s="178"/>
-      <c r="J3" s="178"/>
-      <c r="L3" s="181" t="s">
+      <c r="H3" s="190"/>
+      <c r="I3" s="190"/>
+      <c r="J3" s="190"/>
+      <c r="L3" s="187" t="s">
         <v>165</v>
       </c>
-      <c r="M3" s="181"/>
-      <c r="N3" s="181"/>
-      <c r="O3" s="181"/>
-      <c r="Q3" s="178" t="s">
+      <c r="M3" s="187"/>
+      <c r="N3" s="187"/>
+      <c r="O3" s="187"/>
+      <c r="Q3" s="190" t="s">
         <v>166</v>
       </c>
-      <c r="R3" s="178"/>
-      <c r="S3" s="178"/>
-      <c r="T3" s="178"/>
+      <c r="R3" s="190"/>
+      <c r="S3" s="190"/>
+      <c r="T3" s="190"/>
     </row>
     <row r="4" spans="2:20" ht="15" thickTop="1" thickBot="1">
-      <c r="B4" s="179" t="s">
+      <c r="B4" s="182" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="179"/>
-      <c r="D4" s="179"/>
-      <c r="E4" s="179"/>
-      <c r="G4" s="179" t="s">
+      <c r="C4" s="182"/>
+      <c r="D4" s="182"/>
+      <c r="E4" s="182"/>
+      <c r="G4" s="182" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="179"/>
-      <c r="I4" s="179"/>
-      <c r="J4" s="179"/>
-      <c r="L4" s="179" t="s">
+      <c r="H4" s="182"/>
+      <c r="I4" s="182"/>
+      <c r="J4" s="182"/>
+      <c r="L4" s="182" t="s">
         <v>121</v>
       </c>
-      <c r="M4" s="179"/>
-      <c r="N4" s="179"/>
-      <c r="O4" s="179"/>
-      <c r="Q4" s="179" t="s">
+      <c r="M4" s="182"/>
+      <c r="N4" s="182"/>
+      <c r="O4" s="182"/>
+      <c r="Q4" s="182" t="s">
         <v>34</v>
       </c>
-      <c r="R4" s="179"/>
-      <c r="S4" s="179"/>
-      <c r="T4" s="179"/>
+      <c r="R4" s="182"/>
+      <c r="S4" s="182"/>
+      <c r="T4" s="182"/>
     </row>
     <row r="5" spans="2:20" ht="14.25" thickTop="1">
-      <c r="B5" s="174" t="s">
+      <c r="B5" s="171" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="174"/>
-      <c r="D5" s="190"/>
-      <c r="E5" s="191"/>
-      <c r="G5" s="177" t="s">
+      <c r="C5" s="171"/>
+      <c r="D5" s="188"/>
+      <c r="E5" s="189"/>
+      <c r="G5" s="185" t="s">
         <v>123</v>
       </c>
-      <c r="H5" s="177"/>
+      <c r="H5" s="185"/>
       <c r="I5" s="35"/>
       <c r="J5" s="36"/>
       <c r="L5" s="33" t="s">
@@ -3420,360 +3828,360 @@
       <c r="M5" s="34"/>
       <c r="N5" s="35"/>
       <c r="O5" s="36"/>
-      <c r="Q5" s="177" t="s">
+      <c r="Q5" s="185" t="s">
         <v>123</v>
       </c>
-      <c r="R5" s="177"/>
+      <c r="R5" s="185"/>
       <c r="S5" s="35"/>
       <c r="T5" s="36"/>
     </row>
     <row r="6" spans="2:20" ht="13.5">
-      <c r="B6" s="174" t="s">
+      <c r="B6" s="171" t="s">
         <v>124</v>
       </c>
-      <c r="C6" s="174"/>
-      <c r="D6" s="175" t="s">
+      <c r="C6" s="171"/>
+      <c r="D6" s="172" t="s">
         <v>125</v>
       </c>
-      <c r="E6" s="176"/>
-      <c r="G6" s="177" t="s">
+      <c r="E6" s="173"/>
+      <c r="G6" s="185" t="s">
         <v>126</v>
       </c>
-      <c r="H6" s="177"/>
-      <c r="I6" s="175"/>
-      <c r="J6" s="176"/>
-      <c r="L6" s="174" t="s">
+      <c r="H6" s="185"/>
+      <c r="I6" s="172"/>
+      <c r="J6" s="173"/>
+      <c r="L6" s="171" t="s">
         <v>124</v>
       </c>
-      <c r="M6" s="174"/>
-      <c r="N6" s="175" t="s">
+      <c r="M6" s="171"/>
+      <c r="N6" s="172" t="s">
         <v>125</v>
       </c>
-      <c r="O6" s="176"/>
-      <c r="Q6" s="177" t="s">
+      <c r="O6" s="173"/>
+      <c r="Q6" s="185" t="s">
         <v>126</v>
       </c>
-      <c r="R6" s="177"/>
-      <c r="S6" s="175"/>
-      <c r="T6" s="176"/>
+      <c r="R6" s="185"/>
+      <c r="S6" s="172"/>
+      <c r="T6" s="173"/>
     </row>
     <row r="7" spans="2:20" ht="13.5">
-      <c r="B7" s="174" t="s">
+      <c r="B7" s="171" t="s">
         <v>127</v>
       </c>
-      <c r="C7" s="174"/>
-      <c r="D7" s="175" t="s">
+      <c r="C7" s="171"/>
+      <c r="D7" s="172" t="s">
         <v>125</v>
       </c>
-      <c r="E7" s="176"/>
-      <c r="G7" s="177" t="s">
+      <c r="E7" s="173"/>
+      <c r="G7" s="185" t="s">
         <v>128</v>
       </c>
-      <c r="H7" s="177"/>
-      <c r="I7" s="175"/>
-      <c r="J7" s="176"/>
-      <c r="L7" s="174" t="s">
+      <c r="H7" s="185"/>
+      <c r="I7" s="172"/>
+      <c r="J7" s="173"/>
+      <c r="L7" s="171" t="s">
         <v>127</v>
       </c>
-      <c r="M7" s="174"/>
-      <c r="N7" s="175" t="s">
+      <c r="M7" s="171"/>
+      <c r="N7" s="172" t="s">
         <v>125</v>
       </c>
-      <c r="O7" s="176"/>
-      <c r="Q7" s="177" t="s">
+      <c r="O7" s="173"/>
+      <c r="Q7" s="185" t="s">
         <v>128</v>
       </c>
-      <c r="R7" s="177"/>
-      <c r="S7" s="175"/>
-      <c r="T7" s="176"/>
+      <c r="R7" s="185"/>
+      <c r="S7" s="172"/>
+      <c r="T7" s="173"/>
     </row>
     <row r="8" spans="2:20" ht="13.5">
-      <c r="B8" s="174" t="s">
+      <c r="B8" s="171" t="s">
         <v>129</v>
       </c>
-      <c r="C8" s="174"/>
-      <c r="D8" s="175">
+      <c r="C8" s="171"/>
+      <c r="D8" s="172">
         <f>D13*D15</f>
         <v>305000</v>
       </c>
-      <c r="E8" s="176"/>
-      <c r="G8" s="177" t="s">
+      <c r="E8" s="173"/>
+      <c r="G8" s="185" t="s">
         <v>130</v>
       </c>
-      <c r="H8" s="177"/>
-      <c r="I8" s="175"/>
-      <c r="J8" s="176"/>
-      <c r="L8" s="174" t="s">
+      <c r="H8" s="185"/>
+      <c r="I8" s="172"/>
+      <c r="J8" s="173"/>
+      <c r="L8" s="171" t="s">
         <v>129</v>
       </c>
-      <c r="M8" s="174"/>
-      <c r="N8" s="175">
+      <c r="M8" s="171"/>
+      <c r="N8" s="172">
         <f>N14*N16</f>
         <v>305000</v>
       </c>
-      <c r="O8" s="176"/>
-      <c r="Q8" s="177" t="s">
+      <c r="O8" s="173"/>
+      <c r="Q8" s="185" t="s">
         <v>130</v>
       </c>
-      <c r="R8" s="177"/>
-      <c r="S8" s="175"/>
-      <c r="T8" s="176"/>
+      <c r="R8" s="185"/>
+      <c r="S8" s="172"/>
+      <c r="T8" s="173"/>
     </row>
     <row r="9" spans="2:20" ht="13.5">
-      <c r="B9" s="174" t="s">
+      <c r="B9" s="171" t="s">
         <v>131</v>
       </c>
-      <c r="C9" s="174"/>
-      <c r="D9" s="175" t="s">
+      <c r="C9" s="171"/>
+      <c r="D9" s="172" t="s">
         <v>132</v>
       </c>
-      <c r="E9" s="176"/>
-      <c r="G9" s="177" t="s">
+      <c r="E9" s="173"/>
+      <c r="G9" s="185" t="s">
         <v>133</v>
       </c>
-      <c r="H9" s="177"/>
-      <c r="I9" s="175"/>
-      <c r="J9" s="176"/>
-      <c r="L9" s="174" t="s">
+      <c r="H9" s="185"/>
+      <c r="I9" s="172"/>
+      <c r="J9" s="173"/>
+      <c r="L9" s="171" t="s">
         <v>131</v>
       </c>
-      <c r="M9" s="174"/>
-      <c r="N9" s="175" t="s">
+      <c r="M9" s="171"/>
+      <c r="N9" s="172" t="s">
         <v>132</v>
       </c>
-      <c r="O9" s="176"/>
-      <c r="Q9" s="177" t="s">
+      <c r="O9" s="173"/>
+      <c r="Q9" s="185" t="s">
         <v>133</v>
       </c>
-      <c r="R9" s="177"/>
-      <c r="S9" s="175"/>
-      <c r="T9" s="176"/>
+      <c r="R9" s="185"/>
+      <c r="S9" s="172"/>
+      <c r="T9" s="173"/>
     </row>
     <row r="10" spans="2:20" ht="13.5">
-      <c r="B10" s="174" t="s">
+      <c r="B10" s="171" t="s">
         <v>134</v>
       </c>
-      <c r="C10" s="174"/>
-      <c r="D10" s="175">
+      <c r="C10" s="171"/>
+      <c r="D10" s="172">
         <v>43084</v>
       </c>
-      <c r="E10" s="176"/>
+      <c r="E10" s="173"/>
       <c r="G10" s="30" t="s">
         <v>135</v>
       </c>
       <c r="H10" s="30"/>
-      <c r="I10" s="175"/>
-      <c r="J10" s="176"/>
-      <c r="L10" s="174" t="s">
+      <c r="I10" s="172"/>
+      <c r="J10" s="173"/>
+      <c r="L10" s="171" t="s">
         <v>134</v>
       </c>
-      <c r="M10" s="174"/>
-      <c r="N10" s="175">
+      <c r="M10" s="171"/>
+      <c r="N10" s="172">
         <v>43084</v>
       </c>
-      <c r="O10" s="176"/>
+      <c r="O10" s="173"/>
       <c r="Q10" s="52" t="s">
         <v>135</v>
       </c>
       <c r="R10" s="52"/>
-      <c r="S10" s="175"/>
-      <c r="T10" s="176"/>
+      <c r="S10" s="172"/>
+      <c r="T10" s="173"/>
     </row>
     <row r="11" spans="2:20" ht="13.5">
-      <c r="B11" s="174" t="s">
+      <c r="B11" s="171" t="s">
         <v>136</v>
       </c>
-      <c r="C11" s="174"/>
-      <c r="D11" s="175">
+      <c r="C11" s="171"/>
+      <c r="D11" s="172">
         <v>3935</v>
       </c>
-      <c r="E11" s="176"/>
-      <c r="G11" s="177" t="s">
+      <c r="E11" s="173"/>
+      <c r="G11" s="185" t="s">
         <v>137</v>
       </c>
-      <c r="H11" s="177"/>
-      <c r="I11" s="175"/>
-      <c r="J11" s="176"/>
-      <c r="L11" s="174" t="s">
+      <c r="H11" s="185"/>
+      <c r="I11" s="172"/>
+      <c r="J11" s="173"/>
+      <c r="L11" s="171" t="s">
         <v>136</v>
       </c>
-      <c r="M11" s="174"/>
-      <c r="N11" s="175">
+      <c r="M11" s="171"/>
+      <c r="N11" s="172">
         <v>3935</v>
       </c>
-      <c r="O11" s="176"/>
-      <c r="Q11" s="177" t="s">
+      <c r="O11" s="173"/>
+      <c r="Q11" s="185" t="s">
         <v>137</v>
       </c>
-      <c r="R11" s="177"/>
-      <c r="S11" s="175"/>
-      <c r="T11" s="176"/>
+      <c r="R11" s="185"/>
+      <c r="S11" s="172"/>
+      <c r="T11" s="173"/>
     </row>
     <row r="12" spans="2:20" ht="13.5">
-      <c r="B12" s="174" t="s">
+      <c r="B12" s="171" t="s">
         <v>138</v>
       </c>
-      <c r="C12" s="174"/>
-      <c r="D12" s="175">
+      <c r="C12" s="171"/>
+      <c r="D12" s="172">
         <v>3800</v>
       </c>
-      <c r="E12" s="176"/>
-      <c r="G12" s="177" t="s">
+      <c r="E12" s="173"/>
+      <c r="G12" s="185" t="s">
         <v>139</v>
       </c>
-      <c r="H12" s="177"/>
-      <c r="I12" s="175"/>
-      <c r="J12" s="176"/>
-      <c r="L12" s="174" t="s">
+      <c r="H12" s="185"/>
+      <c r="I12" s="172"/>
+      <c r="J12" s="173"/>
+      <c r="L12" s="171" t="s">
         <v>163</v>
       </c>
-      <c r="M12" s="174"/>
-      <c r="N12" s="175">
+      <c r="M12" s="171"/>
+      <c r="N12" s="172">
         <v>3800</v>
       </c>
-      <c r="O12" s="176"/>
-      <c r="Q12" s="177" t="s">
+      <c r="O12" s="173"/>
+      <c r="Q12" s="185" t="s">
         <v>167</v>
       </c>
-      <c r="R12" s="177"/>
-      <c r="S12" s="175"/>
-      <c r="T12" s="176"/>
+      <c r="R12" s="185"/>
+      <c r="S12" s="172"/>
+      <c r="T12" s="173"/>
     </row>
     <row r="13" spans="2:20" ht="13.5">
-      <c r="B13" s="174" t="s">
+      <c r="B13" s="171" t="s">
         <v>140</v>
       </c>
-      <c r="C13" s="174"/>
-      <c r="D13" s="175">
+      <c r="C13" s="171"/>
+      <c r="D13" s="172">
         <v>61</v>
       </c>
-      <c r="E13" s="176"/>
-      <c r="G13" s="177" t="s">
+      <c r="E13" s="173"/>
+      <c r="G13" s="185" t="s">
         <v>141</v>
       </c>
-      <c r="H13" s="177"/>
-      <c r="I13" s="175"/>
-      <c r="J13" s="176"/>
-      <c r="L13" s="174" t="s">
+      <c r="H13" s="185"/>
+      <c r="I13" s="172"/>
+      <c r="J13" s="173"/>
+      <c r="L13" s="171" t="s">
         <v>164</v>
       </c>
-      <c r="M13" s="174"/>
-      <c r="N13" s="175">
+      <c r="M13" s="171"/>
+      <c r="N13" s="172">
         <v>3800</v>
       </c>
-      <c r="O13" s="176"/>
-      <c r="Q13" s="177" t="s">
+      <c r="O13" s="173"/>
+      <c r="Q13" s="185" t="s">
         <v>168</v>
       </c>
-      <c r="R13" s="177"/>
-      <c r="S13" s="175"/>
-      <c r="T13" s="176"/>
+      <c r="R13" s="185"/>
+      <c r="S13" s="172"/>
+      <c r="T13" s="173"/>
     </row>
     <row r="14" spans="2:20" ht="13.5">
-      <c r="B14" s="174" t="s">
+      <c r="B14" s="171" t="s">
         <v>142</v>
       </c>
-      <c r="C14" s="174"/>
-      <c r="D14" s="175" t="s">
+      <c r="C14" s="171"/>
+      <c r="D14" s="172" t="s">
         <v>143</v>
       </c>
-      <c r="E14" s="176"/>
-      <c r="G14" s="177" t="s">
+      <c r="E14" s="173"/>
+      <c r="G14" s="185" t="s">
         <v>144</v>
       </c>
-      <c r="H14" s="177"/>
+      <c r="H14" s="185"/>
       <c r="I14" s="31"/>
       <c r="J14" s="32"/>
-      <c r="L14" s="174" t="s">
+      <c r="L14" s="171" t="s">
         <v>140</v>
       </c>
-      <c r="M14" s="174"/>
-      <c r="N14" s="175">
+      <c r="M14" s="171"/>
+      <c r="N14" s="172">
         <v>61</v>
       </c>
-      <c r="O14" s="176"/>
-      <c r="Q14" s="177" t="s">
+      <c r="O14" s="173"/>
+      <c r="Q14" s="185" t="s">
         <v>141</v>
       </c>
-      <c r="R14" s="177"/>
-      <c r="S14" s="175"/>
-      <c r="T14" s="176"/>
+      <c r="R14" s="185"/>
+      <c r="S14" s="172"/>
+      <c r="T14" s="173"/>
     </row>
     <row r="15" spans="2:20" ht="13.5">
-      <c r="B15" s="174" t="s">
+      <c r="B15" s="171" t="s">
         <v>145</v>
       </c>
-      <c r="C15" s="174"/>
-      <c r="D15" s="175">
+      <c r="C15" s="171"/>
+      <c r="D15" s="172">
         <v>5000</v>
       </c>
-      <c r="E15" s="176"/>
-      <c r="G15" s="177" t="s">
+      <c r="E15" s="173"/>
+      <c r="G15" s="185" t="s">
         <v>146</v>
       </c>
-      <c r="H15" s="177"/>
-      <c r="I15" s="175"/>
-      <c r="J15" s="176"/>
-      <c r="L15" s="174" t="s">
+      <c r="H15" s="185"/>
+      <c r="I15" s="172"/>
+      <c r="J15" s="173"/>
+      <c r="L15" s="171" t="s">
         <v>142</v>
       </c>
-      <c r="M15" s="174"/>
-      <c r="N15" s="175" t="s">
+      <c r="M15" s="171"/>
+      <c r="N15" s="172" t="s">
         <v>143</v>
       </c>
-      <c r="O15" s="176"/>
-      <c r="Q15" s="177" t="s">
+      <c r="O15" s="173"/>
+      <c r="Q15" s="185" t="s">
         <v>144</v>
       </c>
-      <c r="R15" s="177"/>
+      <c r="R15" s="185"/>
       <c r="S15" s="50"/>
       <c r="T15" s="51"/>
     </row>
     <row r="16" spans="2:20" ht="14.25" thickBot="1">
-      <c r="B16" s="180" t="s">
+      <c r="B16" s="176" t="s">
         <v>147</v>
       </c>
-      <c r="C16" s="180"/>
-      <c r="D16" s="172" t="s">
+      <c r="C16" s="176"/>
+      <c r="D16" s="177" t="s">
         <v>148</v>
       </c>
-      <c r="E16" s="173"/>
-      <c r="G16" s="171" t="s">
+      <c r="E16" s="178"/>
+      <c r="G16" s="180" t="s">
         <v>149</v>
       </c>
-      <c r="H16" s="171"/>
-      <c r="I16" s="172"/>
-      <c r="J16" s="173"/>
-      <c r="L16" s="174" t="s">
+      <c r="H16" s="180"/>
+      <c r="I16" s="177"/>
+      <c r="J16" s="178"/>
+      <c r="L16" s="171" t="s">
         <v>145</v>
       </c>
-      <c r="M16" s="174"/>
-      <c r="N16" s="175">
+      <c r="M16" s="171"/>
+      <c r="N16" s="172">
         <v>5000</v>
       </c>
-      <c r="O16" s="176"/>
-      <c r="Q16" s="177" t="s">
+      <c r="O16" s="173"/>
+      <c r="Q16" s="185" t="s">
         <v>146</v>
       </c>
-      <c r="R16" s="177"/>
-      <c r="S16" s="175"/>
-      <c r="T16" s="176"/>
+      <c r="R16" s="185"/>
+      <c r="S16" s="172"/>
+      <c r="T16" s="173"/>
     </row>
     <row r="17" spans="2:20" ht="15" thickTop="1" thickBot="1">
-      <c r="L17" s="180" t="s">
+      <c r="L17" s="176" t="s">
         <v>147</v>
       </c>
-      <c r="M17" s="180"/>
-      <c r="N17" s="172" t="s">
+      <c r="M17" s="176"/>
+      <c r="N17" s="177" t="s">
         <v>148</v>
       </c>
-      <c r="O17" s="173"/>
-      <c r="Q17" s="171" t="s">
+      <c r="O17" s="178"/>
+      <c r="Q17" s="180" t="s">
         <v>149</v>
       </c>
-      <c r="R17" s="171"/>
-      <c r="S17" s="172"/>
-      <c r="T17" s="173"/>
+      <c r="R17" s="180"/>
+      <c r="S17" s="177"/>
+      <c r="T17" s="178"/>
     </row>
     <row r="18" spans="2:20" ht="12" thickTop="1"/>
     <row r="19" spans="2:20" ht="13.5">
@@ -3792,253 +4200,320 @@
       <c r="J21" s="7"/>
     </row>
     <row r="22" spans="2:20" ht="15" thickTop="1" thickBot="1">
-      <c r="B22" s="179" t="s">
+      <c r="B22" s="182" t="s">
         <v>121</v>
       </c>
-      <c r="C22" s="179"/>
-      <c r="D22" s="179"/>
-      <c r="E22" s="179"/>
-      <c r="G22" s="179" t="s">
+      <c r="C22" s="182"/>
+      <c r="D22" s="182"/>
+      <c r="E22" s="182"/>
+      <c r="G22" s="182" t="s">
         <v>121</v>
       </c>
-      <c r="H22" s="179"/>
-      <c r="I22" s="179"/>
-      <c r="J22" s="179"/>
+      <c r="H22" s="182"/>
+      <c r="I22" s="182"/>
+      <c r="J22" s="182"/>
     </row>
     <row r="23" spans="2:20" ht="14.25" thickTop="1">
-      <c r="B23" s="174" t="s">
+      <c r="B23" s="171" t="s">
         <v>122</v>
       </c>
-      <c r="C23" s="174"/>
-      <c r="D23" s="186">
+      <c r="C23" s="171"/>
+      <c r="D23" s="183">
         <v>43125</v>
       </c>
-      <c r="E23" s="187"/>
-      <c r="G23" s="174" t="s">
+      <c r="E23" s="184"/>
+      <c r="G23" s="171" t="s">
         <v>122</v>
       </c>
-      <c r="H23" s="174"/>
-      <c r="I23" s="186"/>
-      <c r="J23" s="187"/>
+      <c r="H23" s="171"/>
+      <c r="I23" s="183"/>
+      <c r="J23" s="184"/>
     </row>
     <row r="24" spans="2:20" ht="13.5">
-      <c r="B24" s="174" t="s">
+      <c r="B24" s="171" t="s">
         <v>124</v>
       </c>
-      <c r="C24" s="174"/>
-      <c r="D24" s="175" t="s">
+      <c r="C24" s="171"/>
+      <c r="D24" s="172" t="s">
         <v>197</v>
       </c>
-      <c r="E24" s="176"/>
-      <c r="G24" s="174" t="s">
+      <c r="E24" s="173"/>
+      <c r="G24" s="171" t="s">
         <v>183</v>
       </c>
-      <c r="H24" s="174"/>
-      <c r="I24" s="175"/>
-      <c r="J24" s="176"/>
+      <c r="H24" s="171"/>
+      <c r="I24" s="172"/>
+      <c r="J24" s="173"/>
     </row>
     <row r="25" spans="2:20" ht="13.5">
-      <c r="B25" s="174" t="s">
+      <c r="B25" s="171" t="s">
         <v>127</v>
       </c>
-      <c r="C25" s="174"/>
-      <c r="D25" s="175" t="s">
+      <c r="C25" s="171"/>
+      <c r="D25" s="172" t="s">
         <v>198</v>
       </c>
-      <c r="E25" s="176"/>
-      <c r="G25" s="174" t="s">
+      <c r="E25" s="173"/>
+      <c r="G25" s="171" t="s">
         <v>181</v>
       </c>
-      <c r="H25" s="174"/>
-      <c r="I25" s="175"/>
-      <c r="J25" s="176"/>
+      <c r="H25" s="171"/>
+      <c r="I25" s="172"/>
+      <c r="J25" s="173"/>
     </row>
     <row r="26" spans="2:20" ht="13.5">
-      <c r="B26" s="174" t="s">
+      <c r="B26" s="171" t="s">
         <v>129</v>
       </c>
-      <c r="C26" s="174"/>
-      <c r="D26" s="175">
+      <c r="C26" s="171"/>
+      <c r="D26" s="172">
         <f>D31*D33</f>
         <v>46620</v>
       </c>
-      <c r="E26" s="176"/>
+      <c r="E26" s="173"/>
       <c r="G26" s="111" t="s">
         <v>182</v>
       </c>
       <c r="H26" s="111"/>
-      <c r="I26" s="175"/>
-      <c r="J26" s="176"/>
+      <c r="I26" s="172"/>
+      <c r="J26" s="173"/>
     </row>
     <row r="27" spans="2:20" ht="13.5">
-      <c r="B27" s="174" t="s">
+      <c r="B27" s="171" t="s">
         <v>131</v>
       </c>
-      <c r="C27" s="174"/>
-      <c r="D27" s="175" t="s">
+      <c r="C27" s="171"/>
+      <c r="D27" s="172" t="s">
         <v>199</v>
       </c>
-      <c r="E27" s="176"/>
-      <c r="G27" s="174" t="s">
+      <c r="E27" s="173"/>
+      <c r="G27" s="171" t="s">
         <v>131</v>
       </c>
-      <c r="H27" s="174"/>
-      <c r="I27" s="175"/>
-      <c r="J27" s="176"/>
+      <c r="H27" s="171"/>
+      <c r="I27" s="172"/>
+      <c r="J27" s="173"/>
     </row>
     <row r="28" spans="2:20" ht="13.5">
-      <c r="B28" s="174" t="s">
+      <c r="B28" s="171" t="s">
         <v>134</v>
       </c>
-      <c r="C28" s="174"/>
-      <c r="D28" s="185">
+      <c r="C28" s="171"/>
+      <c r="D28" s="179">
         <v>43186</v>
       </c>
-      <c r="E28" s="193"/>
-      <c r="G28" s="174" t="s">
+      <c r="E28" s="181"/>
+      <c r="G28" s="171" t="s">
         <v>134</v>
       </c>
-      <c r="H28" s="174"/>
-      <c r="I28" s="185"/>
-      <c r="J28" s="176"/>
+      <c r="H28" s="171"/>
+      <c r="I28" s="179"/>
+      <c r="J28" s="173"/>
     </row>
     <row r="29" spans="2:20" ht="13.5">
-      <c r="B29" s="174" t="s">
+      <c r="B29" s="171" t="s">
         <v>136</v>
       </c>
-      <c r="C29" s="174"/>
-      <c r="D29" s="175">
+      <c r="C29" s="171"/>
+      <c r="D29" s="172">
         <v>667.6</v>
       </c>
-      <c r="E29" s="176"/>
-      <c r="G29" s="174" t="s">
+      <c r="E29" s="173"/>
+      <c r="G29" s="171" t="s">
         <v>136</v>
       </c>
-      <c r="H29" s="174"/>
-      <c r="I29" s="175"/>
-      <c r="J29" s="176"/>
+      <c r="H29" s="171"/>
+      <c r="I29" s="172"/>
+      <c r="J29" s="173"/>
     </row>
     <row r="30" spans="2:20" ht="13.5">
-      <c r="B30" s="174" t="s">
+      <c r="B30" s="171" t="s">
         <v>138</v>
       </c>
-      <c r="C30" s="174"/>
-      <c r="D30" s="175">
+      <c r="C30" s="171"/>
+      <c r="D30" s="172">
         <v>667.6</v>
       </c>
-      <c r="E30" s="176"/>
-      <c r="G30" s="174" t="s">
+      <c r="E30" s="173"/>
+      <c r="G30" s="171" t="s">
         <v>179</v>
       </c>
-      <c r="H30" s="174"/>
+      <c r="H30" s="171"/>
       <c r="I30" s="112"/>
       <c r="J30" s="113"/>
     </row>
     <row r="31" spans="2:20" ht="13.5">
-      <c r="B31" s="174" t="s">
+      <c r="B31" s="171" t="s">
         <v>140</v>
       </c>
-      <c r="C31" s="174"/>
-      <c r="D31" s="175">
+      <c r="C31" s="171"/>
+      <c r="D31" s="172">
         <v>25.9</v>
       </c>
-      <c r="E31" s="176"/>
-      <c r="G31" s="174" t="s">
+      <c r="E31" s="173"/>
+      <c r="G31" s="171" t="s">
         <v>180</v>
       </c>
-      <c r="H31" s="174"/>
-      <c r="I31" s="175"/>
-      <c r="J31" s="176"/>
+      <c r="H31" s="171"/>
+      <c r="I31" s="172"/>
+      <c r="J31" s="173"/>
     </row>
     <row r="32" spans="2:20" ht="13.5">
-      <c r="B32" s="174" t="s">
+      <c r="B32" s="171" t="s">
         <v>142</v>
       </c>
-      <c r="C32" s="174"/>
-      <c r="D32" s="175" t="s">
+      <c r="C32" s="171"/>
+      <c r="D32" s="172" t="s">
         <v>200</v>
       </c>
-      <c r="E32" s="176"/>
-      <c r="G32" s="174" t="s">
+      <c r="E32" s="173"/>
+      <c r="G32" s="171" t="s">
         <v>140</v>
       </c>
-      <c r="H32" s="174"/>
-      <c r="I32" s="175"/>
-      <c r="J32" s="176"/>
+      <c r="H32" s="171"/>
+      <c r="I32" s="172"/>
+      <c r="J32" s="173"/>
     </row>
     <row r="33" spans="2:10" ht="13.5">
-      <c r="B33" s="174" t="s">
+      <c r="B33" s="171" t="s">
         <v>190</v>
       </c>
-      <c r="C33" s="174"/>
-      <c r="D33" s="175">
+      <c r="C33" s="171"/>
+      <c r="D33" s="172">
         <v>1800</v>
       </c>
-      <c r="E33" s="176"/>
-      <c r="G33" s="174" t="s">
+      <c r="E33" s="173"/>
+      <c r="G33" s="171" t="s">
         <v>142</v>
       </c>
-      <c r="H33" s="174"/>
-      <c r="I33" s="175"/>
-      <c r="J33" s="176"/>
+      <c r="H33" s="171"/>
+      <c r="I33" s="172"/>
+      <c r="J33" s="173"/>
     </row>
     <row r="34" spans="2:10" ht="14.25" thickBot="1">
-      <c r="B34" s="180" t="s">
+      <c r="B34" s="176" t="s">
         <v>147</v>
       </c>
-      <c r="C34" s="180"/>
-      <c r="D34" s="172" t="s">
+      <c r="C34" s="176"/>
+      <c r="D34" s="177" t="s">
         <v>201</v>
       </c>
-      <c r="E34" s="173"/>
-      <c r="G34" s="174" t="s">
+      <c r="E34" s="178"/>
+      <c r="G34" s="171" t="s">
         <v>145</v>
       </c>
-      <c r="H34" s="174"/>
-      <c r="I34" s="183"/>
-      <c r="J34" s="184"/>
+      <c r="H34" s="171"/>
+      <c r="I34" s="174"/>
+      <c r="J34" s="175"/>
     </row>
     <row r="35" spans="2:10" ht="15" thickTop="1" thickBot="1">
-      <c r="G35" s="180" t="s">
+      <c r="G35" s="176" t="s">
         <v>147</v>
       </c>
-      <c r="H35" s="180"/>
-      <c r="I35" s="172"/>
-      <c r="J35" s="173"/>
+      <c r="H35" s="176"/>
+      <c r="I35" s="177"/>
+      <c r="J35" s="178"/>
     </row>
     <row r="36" spans="2:10" ht="12" thickTop="1"/>
   </sheetData>
   <mergeCells count="151">
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="Q4:T4"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="B27:C27"/>
@@ -4063,103 +4538,36 @@
     <mergeCell ref="G25:H25"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="Q3:T3"/>
-    <mergeCell ref="Q4:T4"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4171,8 +4579,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:V63"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S13" sqref="C13:S13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25"/>
@@ -4199,10 +4607,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B1" s="182" t="s">
+      <c r="B1" s="186" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="182"/>
+      <c r="C1" s="186"/>
     </row>
     <row r="2" spans="1:22" ht="12" thickTop="1">
       <c r="B2" s="3" t="s">
@@ -4327,12 +4735,12 @@
         <v>22</v>
       </c>
       <c r="E8" s="21">
-        <f t="shared" ref="E8:E13" ca="1" si="0">TODAY()</f>
-        <v>43125</v>
+        <f t="shared" ref="E8:E23" ca="1" si="0">TODAY()</f>
+        <v>43126</v>
       </c>
       <c r="F8" s="21">
         <f t="shared" ref="F8:F9" ca="1" si="1">E8+H8</f>
-        <v>43155</v>
+        <v>43156</v>
       </c>
       <c r="G8" s="19">
         <v>3800</v>
@@ -4352,22 +4760,22 @@
       </c>
       <c r="L8" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q8,$P8,$G8,$I8,$C$3,$J8,$K8,$C$4)*R8</f>
-        <v>-231.92551542977617</v>
+        <v>-213.96041317200297</v>
       </c>
       <c r="M8" s="25">
         <v>80</v>
       </c>
       <c r="N8" s="24">
         <f t="shared" ref="N8:N9" si="3">M8/10000*I8*P8</f>
-        <v>2.6077808219178085</v>
+        <v>2.5906849315068494</v>
       </c>
       <c r="O8" s="24">
         <f t="shared" ref="O8:O9" si="4">IF(L8&lt;=0,ABS(L8)+N8,L8-N8)</f>
-        <v>234.53329625169397</v>
+        <v>216.55109810350982</v>
       </c>
       <c r="P8" s="20">
         <f>RTD("wdf.rtq",,D8,"LastPrice")</f>
-        <v>3966</v>
+        <v>3940</v>
       </c>
       <c r="Q8" s="19" t="s">
         <v>27</v>
@@ -4381,15 +4789,15 @@
       </c>
       <c r="T8" s="26">
         <f t="shared" ref="T8:T9" si="6">O8/P8</f>
-        <v>5.9135979892005537E-2</v>
+        <v>5.4962207640484727E-2</v>
       </c>
       <c r="U8" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q8,$P8,$G8,$I8,$C$3,$J8,$K8,$C$4)*R8</f>
-        <v>-0.70428944859486364</v>
+        <v>-0.67744034342922532</v>
       </c>
       <c r="V8" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q8,$P8,$G8,$I8,$C$3,$J8,$K8,$C$4)*R8</f>
-        <v>-3.9134176801933336</v>
+        <v>-4.04001903307676</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -4405,11 +4813,11 @@
       </c>
       <c r="E9" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43125</v>
+        <v>43126</v>
       </c>
       <c r="F9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43157</v>
+        <v>43158</v>
       </c>
       <c r="G9" s="10">
         <v>102.5</v>
@@ -4479,11 +4887,11 @@
       </c>
       <c r="E10" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43125</v>
+        <v>43126</v>
       </c>
       <c r="F10" s="8">
         <f t="shared" ref="F10" ca="1" si="7">E10+H10</f>
-        <v>43186</v>
+        <v>43187</v>
       </c>
       <c r="G10" s="10">
         <v>670</v>
@@ -4553,11 +4961,11 @@
       </c>
       <c r="E11" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43125</v>
+        <v>43126</v>
       </c>
       <c r="F11" s="8">
         <f t="shared" ref="F11:F12" ca="1" si="13">E11+H11</f>
-        <v>43245</v>
+        <v>43246</v>
       </c>
       <c r="G11" s="10">
         <v>89</v>
@@ -4577,7 +4985,7 @@
       </c>
       <c r="L11" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q11,$P11,$G11,$I11,$C$3,$J11,$K11,$C$4)*R11</f>
-        <v>-3.2078361675934559</v>
+        <v>-3.2280723778987124</v>
       </c>
       <c r="M11" s="15">
         <v>0</v>
@@ -4588,11 +4996,11 @@
       </c>
       <c r="O11" s="13">
         <f t="shared" ref="O11:O12" si="15">IF(L11&lt;=0,ABS(L11)+N11,L11-N11)</f>
-        <v>3.2078361675934559</v>
-      </c>
-      <c r="P11" s="192">
+        <v>3.2280723778987124</v>
+      </c>
+      <c r="P11" s="169">
         <f>RTD("wdf.rtq",,D11,"LastPrice")</f>
-        <v>91.88</v>
+        <v>91.905000000000001</v>
       </c>
       <c r="Q11" s="10" t="s">
         <v>39</v>
@@ -4606,15 +5014,15 @@
       </c>
       <c r="T11" s="14">
         <f t="shared" ref="T11:T12" si="17">O11/P11</f>
-        <v>3.4913323548035002E-2</v>
+        <v>3.5124012598865266E-2</v>
       </c>
       <c r="U11" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q11,$P11,$G11,$I11,$C$3,$J11,$K11,$C$4)*R11</f>
-        <v>-0.80845650917424905</v>
+        <v>-0.81043728899032885</v>
       </c>
       <c r="V11" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q11,$P11,$G11,$I11,$C$3,$J11,$K11,$C$4)*R11</f>
-        <v>-0.13652416618868557</v>
+        <v>-0.13564304240642855</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -4630,11 +5038,11 @@
       </c>
       <c r="E12" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43125</v>
+        <v>43126</v>
       </c>
       <c r="F12" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>43186</v>
+        <v>43187</v>
       </c>
       <c r="G12" s="10">
         <v>670</v>
@@ -4654,7 +5062,7 @@
       </c>
       <c r="L12" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q12,$P12,$G12,$I12,$C$3,$J12,$K12,$C$4)*R12</f>
-        <v>3.2894535508417505E-137</v>
+        <v>1.5000535640891998E-136</v>
       </c>
       <c r="M12" s="15"/>
       <c r="N12" s="13">
@@ -4663,11 +5071,11 @@
       </c>
       <c r="O12" s="13">
         <f t="shared" si="15"/>
-        <v>3.2894535508417505E-137</v>
-      </c>
-      <c r="P12" s="192">
+        <v>1.5000535640891998E-136</v>
+      </c>
+      <c r="P12" s="169">
         <f>RTD("wdf.rtq",,D12,"LastPrice")</f>
-        <v>3798</v>
+        <v>3782</v>
       </c>
       <c r="Q12" s="10" t="s">
         <v>85</v>
@@ -4681,15 +5089,15 @@
       </c>
       <c r="T12" s="14">
         <f t="shared" si="17"/>
-        <v>8.6610151417634289E-141</v>
+        <v>3.9662971022982545E-140</v>
       </c>
       <c r="U12" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q12,$P12,$G12,$I12,$C$3,$J12,$K12,$C$4)*R12</f>
-        <v>-3.1167605038609254E-138</v>
+        <v>-1.4238593121997127E-137</v>
       </c>
       <c r="V12" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q12,$P12,$G12,$I12,$C$3,$J12,$K12,$C$4)*R12</f>
-        <v>8.1148216091568655E-123</v>
+        <v>3.1419756569989938E-122</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -4705,7 +5113,7 @@
       </c>
       <c r="E13" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43125</v>
+        <v>43126</v>
       </c>
       <c r="F13" s="8">
         <f t="shared" ref="F13" ca="1" si="19">E13+H13</f>
@@ -4715,11 +5123,11 @@
         <v>3600</v>
       </c>
       <c r="H13" s="10">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I13" s="12">
         <f>(H13-5)/365</f>
-        <v>0.16164383561643836</v>
+        <v>0.15890410958904111</v>
       </c>
       <c r="J13" s="12">
         <v>0</v>
@@ -4729,7 +5137,7 @@
       </c>
       <c r="L13" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q13,$P13,$G13,$I13,$C$3,$J13,$K13,$C$4)*R13</f>
-        <v>31.170018689363133</v>
+        <v>33.957114977308606</v>
       </c>
       <c r="M13" s="15">
         <v>0</v>
@@ -4740,11 +5148,11 @@
       </c>
       <c r="O13" s="13">
         <f t="shared" ref="O13" si="21">IF(L13&lt;=0,ABS(L13)+N13,L13-N13)</f>
-        <v>31.170018689363133</v>
-      </c>
-      <c r="P13" s="192">
+        <v>33.957114977308606</v>
+      </c>
+      <c r="P13" s="169">
         <f>RTD("wdf.rtq",,D13,"LastPrice")</f>
-        <v>3798</v>
+        <v>3782</v>
       </c>
       <c r="Q13" s="10" t="s">
         <v>85</v>
@@ -4758,136 +5166,399 @@
       </c>
       <c r="T13" s="14">
         <f t="shared" ref="T13" si="23">O13/P13</f>
-        <v>8.2069559476996134E-3</v>
+        <v>8.9786131616363309E-3</v>
       </c>
       <c r="U13" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q13,$P13,$G13,$I13,$C$3,$J13,$K13,$C$4)*R13</f>
-        <v>-0.20614680765334015</v>
+        <v>-0.22242309170792396</v>
       </c>
       <c r="V13" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q13,$P13,$G13,$I13,$C$3,$J13,$K13,$C$4)*R13</f>
-        <v>4.343530282765812</v>
+        <v>4.4824634013940567</v>
       </c>
     </row>
     <row r="14" spans="1:22">
       <c r="A14" s="53"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="14"/>
-      <c r="U14" s="13"/>
-      <c r="V14" s="13"/>
+      <c r="B14" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="E14" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>43126</v>
+      </c>
+      <c r="F14" s="8">
+        <f t="shared" ref="F14:F15" ca="1" si="24">E14+H14</f>
+        <v>43189</v>
+      </c>
+      <c r="G14" s="10">
+        <v>3650</v>
+      </c>
+      <c r="H14" s="10">
+        <v>63</v>
+      </c>
+      <c r="I14" s="12">
+        <f>(H14-5)/365</f>
+        <v>0.15890410958904111</v>
+      </c>
+      <c r="J14" s="12">
+        <v>0</v>
+      </c>
+      <c r="K14" s="9">
+        <v>0.17</v>
+      </c>
+      <c r="L14" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q14,$P14,$G14,$I14,$C$3,$J14,$K14,$C$4)*R14</f>
+        <v>47.778310566056462</v>
+      </c>
+      <c r="M14" s="15">
+        <v>0</v>
+      </c>
+      <c r="N14" s="13">
+        <f t="shared" ref="N14:N15" si="25">M14/10000*I14*P14</f>
+        <v>0</v>
+      </c>
+      <c r="O14" s="13">
+        <f t="shared" ref="O14:O15" si="26">IF(L14&lt;=0,ABS(L14)+N14,L14-N14)</f>
+        <v>47.778310566056462</v>
+      </c>
+      <c r="P14" s="169">
+        <f>RTD("wdf.rtq",,D14,"LastPrice")</f>
+        <v>3782</v>
+      </c>
+      <c r="Q14" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="R14" s="10">
+        <f t="shared" ref="R14:R15" si="27">IF(S14="中金买入",1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="S14" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="T14" s="14">
+        <f t="shared" ref="T14:T15" si="28">O14/P14</f>
+        <v>1.2633080530422121E-2</v>
+      </c>
+      <c r="U14" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q14,$P14,$G14,$I14,$C$3,$J14,$K14,$C$4)*R14</f>
+        <v>-0.28746616025046023</v>
+      </c>
+      <c r="V14" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q14,$P14,$G14,$I14,$C$3,$J14,$K14,$C$4)*R14</f>
+        <v>5.1284892571849241</v>
+      </c>
     </row>
     <row r="15" spans="1:22">
       <c r="A15" s="53"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="14"/>
-      <c r="U15" s="13"/>
-      <c r="V15" s="13"/>
+      <c r="B15" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="E15" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>43126</v>
+      </c>
+      <c r="F15" s="8">
+        <f t="shared" ca="1" si="24"/>
+        <v>43189</v>
+      </c>
+      <c r="G15" s="10">
+        <v>3700</v>
+      </c>
+      <c r="H15" s="10">
+        <v>63</v>
+      </c>
+      <c r="I15" s="12">
+        <f>(H15-5)/365</f>
+        <v>0.15890410958904111</v>
+      </c>
+      <c r="J15" s="12">
+        <v>0</v>
+      </c>
+      <c r="K15" s="9">
+        <v>0.17</v>
+      </c>
+      <c r="L15" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q15,$P15,$G15,$I15,$C$3,$J15,$K15,$C$4)*R15</f>
+        <v>65.153315585591827</v>
+      </c>
+      <c r="M15" s="15">
+        <v>0</v>
+      </c>
+      <c r="N15" s="13">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="13">
+        <f t="shared" si="26"/>
+        <v>65.153315585591827</v>
+      </c>
+      <c r="P15" s="169">
+        <f>RTD("wdf.rtq",,D15,"LastPrice")</f>
+        <v>3782</v>
+      </c>
+      <c r="Q15" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="R15" s="10">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="S15" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="T15" s="14">
+        <f t="shared" si="28"/>
+        <v>1.7227211947538821E-2</v>
+      </c>
+      <c r="U15" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q15,$P15,$G15,$I15,$C$3,$J15,$K15,$C$4)*R15</f>
+        <v>-0.35927197179717041</v>
+      </c>
+      <c r="V15" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q15,$P15,$G15,$I15,$C$3,$J15,$K15,$C$4)*R15</f>
+        <v>5.6235849173647239</v>
+      </c>
     </row>
     <row r="16" spans="1:22">
       <c r="A16" s="53"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="168"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="14"/>
-      <c r="U16" s="13"/>
-      <c r="V16" s="13"/>
+      <c r="B16" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="E16" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>43126</v>
+      </c>
+      <c r="F16" s="8">
+        <f ca="1">E16+H16</f>
+        <v>43307</v>
+      </c>
+      <c r="G16" s="10">
+        <v>100</v>
+      </c>
+      <c r="H16" s="10">
+        <v>181</v>
+      </c>
+      <c r="I16" s="12">
+        <f>(H16)/365</f>
+        <v>0.49589041095890413</v>
+      </c>
+      <c r="J16" s="12">
+        <v>0</v>
+      </c>
+      <c r="K16" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="L16" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q16,$P16,$G16,$I16,$C$3,$J16,$K16,$C$4)*R16</f>
+        <v>-3.3369347576114805</v>
+      </c>
+      <c r="M16" s="15">
+        <v>0</v>
+      </c>
+      <c r="N16" s="13">
+        <f t="shared" ref="N16" si="29">M16/10000*I16*P16</f>
+        <v>0</v>
+      </c>
+      <c r="O16" s="13">
+        <f t="shared" ref="O16" si="30">IF(L16&lt;=0,ABS(L16)+N16,L16-N16)</f>
+        <v>3.3369347576114805</v>
+      </c>
+      <c r="P16" s="169">
+        <v>100</v>
+      </c>
+      <c r="Q16" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="R16" s="10">
+        <f t="shared" ref="R16" si="31">IF(S16="中金买入",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="S16" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="T16" s="14">
+        <f t="shared" ref="T16" si="32">O16/P16</f>
+        <v>3.3369347576114802E-2</v>
+      </c>
+      <c r="U16" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q16,$P16,$G16,$I16,$C$3,$J16,$K16,$C$4)*R16</f>
+        <v>0.47838094341372539</v>
+      </c>
+      <c r="V16" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q16,$P16,$G16,$I16,$C$3,$J16,$K16,$C$4)*R16</f>
+        <v>-0.27791188725777971</v>
+      </c>
     </row>
     <row r="17" spans="1:22">
       <c r="A17" s="53"/>
-      <c r="B17" s="117"/>
-      <c r="C17" s="118"/>
-      <c r="D17" s="118"/>
-      <c r="E17" s="119"/>
-      <c r="F17" s="119"/>
-      <c r="G17" s="118"/>
-      <c r="H17" s="118"/>
-      <c r="I17" s="120"/>
-      <c r="J17" s="120"/>
-      <c r="K17" s="121"/>
-      <c r="L17" s="117"/>
-      <c r="M17" s="122"/>
-      <c r="N17" s="117"/>
-      <c r="O17" s="117"/>
-      <c r="P17" s="123"/>
-      <c r="Q17" s="118"/>
-      <c r="R17" s="118"/>
-      <c r="S17" s="118"/>
-      <c r="T17" s="124"/>
-      <c r="U17" s="117"/>
-      <c r="V17" s="117"/>
+      <c r="B17" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="E17" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>43126</v>
+      </c>
+      <c r="F17" s="8">
+        <f t="shared" ref="F17:F18" ca="1" si="33">E17+H17</f>
+        <v>43491</v>
+      </c>
+      <c r="G17" s="10">
+        <v>100</v>
+      </c>
+      <c r="H17" s="10">
+        <v>365</v>
+      </c>
+      <c r="I17" s="12">
+        <f>(H17)/365</f>
+        <v>1</v>
+      </c>
+      <c r="J17" s="12">
+        <v>0</v>
+      </c>
+      <c r="K17" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="L17" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q17,$P17,$G17,$I17,$C$3,$J17,$K17,$C$4)*R17</f>
+        <v>-4.6896983400314838</v>
+      </c>
+      <c r="M17" s="15">
+        <v>0</v>
+      </c>
+      <c r="N17" s="13">
+        <f t="shared" ref="N17:N18" si="34">M17/10000*I17*P17</f>
+        <v>0</v>
+      </c>
+      <c r="O17" s="13">
+        <f t="shared" ref="O17:O18" si="35">IF(L17&lt;=0,ABS(L17)+N17,L17-N17)</f>
+        <v>4.6896983400314838</v>
+      </c>
+      <c r="P17" s="169">
+        <v>100</v>
+      </c>
+      <c r="Q17" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="R17" s="10">
+        <f t="shared" ref="R17:R18" si="36">IF(S17="中金买入",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="S17" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="T17" s="14">
+        <f t="shared" ref="T17:T18" si="37">O17/P17</f>
+        <v>4.689698340031484E-2</v>
+      </c>
+      <c r="U17" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q17,$P17,$G17,$I17,$C$3,$J17,$K17,$C$4)*R17</f>
+        <v>0.46665085308568166</v>
+      </c>
+      <c r="V17" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q17,$P17,$G17,$I17,$C$3,$J17,$K17,$C$4)*R17</f>
+        <v>-0.39033782968231634</v>
+      </c>
     </row>
     <row r="18" spans="1:22">
       <c r="A18" s="53"/>
-      <c r="B18" s="117"/>
-      <c r="C18" s="118"/>
-      <c r="D18" s="118"/>
-      <c r="E18" s="119"/>
-      <c r="F18" s="119"/>
-      <c r="G18" s="118"/>
-      <c r="H18" s="118"/>
-      <c r="I18" s="120"/>
-      <c r="J18" s="120"/>
-      <c r="K18" s="121"/>
-      <c r="L18" s="117"/>
-      <c r="M18" s="122"/>
-      <c r="N18" s="117"/>
-      <c r="O18" s="117"/>
-      <c r="P18" s="123"/>
-      <c r="Q18" s="118"/>
-      <c r="R18" s="118"/>
-      <c r="S18" s="118"/>
-      <c r="T18" s="124"/>
-      <c r="U18" s="117"/>
-      <c r="V18" s="117"/>
+      <c r="B18" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="E18" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>43126</v>
+      </c>
+      <c r="F18" s="8">
+        <f t="shared" ca="1" si="33"/>
+        <v>43200</v>
+      </c>
+      <c r="G18" s="10">
+        <v>3780</v>
+      </c>
+      <c r="H18" s="10">
+        <v>74</v>
+      </c>
+      <c r="I18" s="12">
+        <f>(H18-7)/365</f>
+        <v>0.18356164383561643</v>
+      </c>
+      <c r="J18" s="12">
+        <v>0</v>
+      </c>
+      <c r="K18" s="9">
+        <v>0.17</v>
+      </c>
+      <c r="L18" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q18,$P18,$G18,$I18,$C$3,$J18,$K18,$C$4)*R18</f>
+        <v>108.44407108796554</v>
+      </c>
+      <c r="M18" s="15">
+        <v>0</v>
+      </c>
+      <c r="N18" s="13">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="O18" s="13">
+        <f t="shared" si="35"/>
+        <v>108.44407108796554</v>
+      </c>
+      <c r="P18" s="169">
+        <f>RTD("wdf.rtq",,D18,"LastPrice")</f>
+        <v>3782</v>
+      </c>
+      <c r="Q18" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="R18" s="10">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="S18" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="T18" s="14">
+        <f t="shared" si="37"/>
+        <v>2.8673736406125208E-2</v>
+      </c>
+      <c r="U18" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q18,$P18,$G18,$I18,$C$3,$J18,$K18,$C$4)*R18</f>
+        <v>-0.48081135212214576</v>
+      </c>
+      <c r="V18" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q18,$P18,$G18,$I18,$C$3,$J18,$K18,$C$4)*R18</f>
+        <v>6.4344804923207448</v>
+      </c>
     </row>
     <row r="19" spans="1:22">
       <c r="A19" s="53"/>
@@ -4915,101 +5586,307 @@
     </row>
     <row r="20" spans="1:22">
       <c r="A20" s="53"/>
-      <c r="B20" s="117"/>
-      <c r="C20" s="118"/>
-      <c r="D20" s="118"/>
-      <c r="E20" s="119"/>
-      <c r="F20" s="119"/>
-      <c r="G20" s="118"/>
-      <c r="H20" s="118"/>
-      <c r="I20" s="120"/>
-      <c r="J20" s="120"/>
-      <c r="K20" s="121"/>
-      <c r="L20" s="117"/>
-      <c r="M20" s="122"/>
-      <c r="N20" s="117"/>
-      <c r="O20" s="117"/>
-      <c r="P20" s="123"/>
-      <c r="Q20" s="118"/>
-      <c r="R20" s="118"/>
-      <c r="S20" s="118"/>
-      <c r="T20" s="124"/>
-      <c r="U20" s="117"/>
-      <c r="V20" s="117"/>
+      <c r="B20" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="E20" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>43126</v>
+      </c>
+      <c r="F20" s="8">
+        <f t="shared" ref="F20:F21" ca="1" si="38">E20+H20</f>
+        <v>43189</v>
+      </c>
+      <c r="G20" s="10">
+        <v>100</v>
+      </c>
+      <c r="H20" s="10">
+        <v>63</v>
+      </c>
+      <c r="I20" s="12">
+        <f>(H20-5)/365</f>
+        <v>0.15890410958904111</v>
+      </c>
+      <c r="J20" s="12">
+        <v>0</v>
+      </c>
+      <c r="K20" s="193">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="L20" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q20,$P20,$G20,$I20,$C$3,$J20,$K20,$C$4)*R20</f>
+        <v>2.3458278698626742</v>
+      </c>
+      <c r="M20" s="15">
+        <v>0</v>
+      </c>
+      <c r="N20" s="13">
+        <f t="shared" ref="N20:N23" si="39">M20/10000*I20*P20</f>
+        <v>0</v>
+      </c>
+      <c r="O20" s="13">
+        <f t="shared" ref="O20:O23" si="40">IF(L20&lt;=0,ABS(L20)+N20,L20-N20)</f>
+        <v>2.3458278698626742</v>
+      </c>
+      <c r="P20" s="169">
+        <v>100</v>
+      </c>
+      <c r="Q20" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="R20" s="10">
+        <f t="shared" ref="R20:R23" si="41">IF(S20="中金买入",1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="S20" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="T20" s="14">
+        <f t="shared" ref="T20:T23" si="42">O20/P20</f>
+        <v>2.3458278698626742E-2</v>
+      </c>
+      <c r="U20" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q20,$P20,$G20,$I20,$C$3,$J20,$K20,$C$4)*R20</f>
+        <v>-0.48668435877843308</v>
+      </c>
+      <c r="V20" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q20,$P20,$G20,$I20,$C$3,$J20,$K20,$C$4)*R20</f>
+        <v>0.15845580966854911</v>
+      </c>
     </row>
     <row r="21" spans="1:22">
       <c r="A21" s="53"/>
-      <c r="B21" s="117"/>
-      <c r="C21" s="118"/>
-      <c r="D21" s="118"/>
-      <c r="E21" s="119"/>
-      <c r="F21" s="119"/>
-      <c r="G21" s="118"/>
-      <c r="H21" s="118"/>
-      <c r="I21" s="120"/>
-      <c r="J21" s="120"/>
-      <c r="K21" s="121">
+      <c r="B21" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="E21" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>43126</v>
+      </c>
+      <c r="F21" s="8">
+        <f ca="1">E21+H21</f>
+        <v>43189</v>
+      </c>
+      <c r="G21" s="10">
+        <v>100</v>
+      </c>
+      <c r="H21" s="10">
+        <v>63</v>
+      </c>
+      <c r="I21" s="12">
+        <f>(H21)/365</f>
+        <v>0.17260273972602741</v>
+      </c>
+      <c r="J21" s="12">
         <v>0</v>
       </c>
-      <c r="L21" s="117"/>
-      <c r="M21" s="122"/>
-      <c r="N21" s="117"/>
-      <c r="O21" s="117"/>
-      <c r="P21" s="123"/>
-      <c r="Q21" s="118"/>
-      <c r="R21" s="118"/>
-      <c r="S21" s="118"/>
-      <c r="T21" s="124"/>
-      <c r="U21" s="117"/>
-      <c r="V21" s="117"/>
+      <c r="K21" s="193">
+        <v>0.19</v>
+      </c>
+      <c r="L21" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q21,$P21,$G21,$I21,$C$3,$J21,$K21,$C$4)*R21</f>
+        <v>3.1374409427236571</v>
+      </c>
+      <c r="M21" s="15">
+        <v>0</v>
+      </c>
+      <c r="N21" s="13">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="O21" s="13">
+        <f t="shared" si="40"/>
+        <v>3.1374409427236571</v>
+      </c>
+      <c r="P21" s="169">
+        <v>100</v>
+      </c>
+      <c r="Q21" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="R21" s="10">
+        <f t="shared" si="41"/>
+        <v>1</v>
+      </c>
+      <c r="S21" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="T21" s="14">
+        <f t="shared" si="42"/>
+        <v>3.1374409427236571E-2</v>
+      </c>
+      <c r="U21" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q21,$P21,$G21,$I21,$C$3,$J21,$K21,$C$4)*R21</f>
+        <v>-0.48258975621600086</v>
+      </c>
+      <c r="V21" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q21,$P21,$G21,$I21,$C$3,$J21,$K21,$C$4)*R21</f>
+        <v>0.16504262757388588</v>
+      </c>
     </row>
     <row r="22" spans="1:22">
       <c r="A22" s="53"/>
-      <c r="B22" s="117"/>
-      <c r="C22" s="118"/>
-      <c r="D22" s="118"/>
-      <c r="E22" s="119"/>
-      <c r="F22" s="119"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="120"/>
-      <c r="J22" s="120"/>
-      <c r="K22" s="121"/>
-      <c r="L22" s="117"/>
-      <c r="M22" s="122"/>
-      <c r="N22" s="117"/>
-      <c r="O22" s="117"/>
-      <c r="P22" s="123"/>
-      <c r="Q22" s="118"/>
-      <c r="R22" s="118"/>
-      <c r="S22" s="118"/>
-      <c r="T22" s="124"/>
-      <c r="U22" s="117"/>
-      <c r="V22" s="117"/>
+      <c r="B22" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="E22" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>43126</v>
+      </c>
+      <c r="F22" s="8">
+        <f t="shared" ref="F22:F23" ca="1" si="43">E22+H22</f>
+        <v>43189</v>
+      </c>
+      <c r="G22" s="10">
+        <v>100</v>
+      </c>
+      <c r="H22" s="10">
+        <v>63</v>
+      </c>
+      <c r="I22" s="12">
+        <f>(H22)/365</f>
+        <v>0.17260273972602741</v>
+      </c>
+      <c r="J22" s="12">
+        <v>0</v>
+      </c>
+      <c r="K22" s="193">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="L22" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q22,$P22,$G22,$I22,$C$3,$J22,$K22,$C$4)*R22</f>
+        <v>2.7743154177913851</v>
+      </c>
+      <c r="M22" s="15">
+        <v>0</v>
+      </c>
+      <c r="N22" s="13">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="O22" s="13">
+        <f t="shared" si="40"/>
+        <v>2.7743154177913851</v>
+      </c>
+      <c r="P22" s="169">
+        <v>100</v>
+      </c>
+      <c r="Q22" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="R22" s="10">
+        <f t="shared" si="41"/>
+        <v>1</v>
+      </c>
+      <c r="S22" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="T22" s="14">
+        <f t="shared" si="42"/>
+        <v>2.7743154177913853E-2</v>
+      </c>
+      <c r="U22" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q22,$P22,$G22,$I22,$C$3,$J22,$K22,$C$4)*R22</f>
+        <v>-0.48440538549137102</v>
+      </c>
+      <c r="V22" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q22,$P22,$G22,$I22,$C$3,$J22,$K22,$C$4)*R22</f>
+        <v>0.16507067518064034</v>
+      </c>
     </row>
     <row r="23" spans="1:22">
       <c r="A23" s="53"/>
-      <c r="B23" s="117"/>
-      <c r="C23" s="118"/>
-      <c r="D23" s="118"/>
-      <c r="E23" s="119"/>
-      <c r="F23" s="119"/>
-      <c r="G23" s="118"/>
-      <c r="H23" s="118"/>
-      <c r="I23" s="120"/>
-      <c r="J23" s="120"/>
-      <c r="K23" s="121"/>
-      <c r="L23" s="117"/>
-      <c r="M23" s="122"/>
-      <c r="N23" s="117"/>
-      <c r="O23" s="117"/>
-      <c r="P23" s="123"/>
-      <c r="Q23" s="118"/>
-      <c r="R23" s="118"/>
-      <c r="S23" s="118"/>
-      <c r="T23" s="124"/>
-      <c r="U23" s="117"/>
-      <c r="V23" s="117"/>
+      <c r="B23" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="E23" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>43126</v>
+      </c>
+      <c r="F23" s="8">
+        <f t="shared" ca="1" si="43"/>
+        <v>43189</v>
+      </c>
+      <c r="G23" s="10">
+        <v>100</v>
+      </c>
+      <c r="H23" s="10">
+        <v>63</v>
+      </c>
+      <c r="I23" s="12">
+        <f>(H23-7)/365</f>
+        <v>0.15342465753424658</v>
+      </c>
+      <c r="J23" s="12">
+        <v>0</v>
+      </c>
+      <c r="K23" s="193">
+        <v>0.248</v>
+      </c>
+      <c r="L23" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q23,$P23,$G23,$I23,$C$3,$J23,$K23,$C$4)*R23</f>
+        <v>3.8619439896667345</v>
+      </c>
+      <c r="M23" s="15">
+        <v>0</v>
+      </c>
+      <c r="N23" s="13">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="O23" s="13">
+        <f t="shared" si="40"/>
+        <v>3.8619439896667345</v>
+      </c>
+      <c r="P23" s="169">
+        <v>100</v>
+      </c>
+      <c r="Q23" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="R23" s="10">
+        <f t="shared" si="41"/>
+        <v>1</v>
+      </c>
+      <c r="S23" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="T23" s="14">
+        <f t="shared" si="42"/>
+        <v>3.8619439896667343E-2</v>
+      </c>
+      <c r="U23" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q23,$P23,$G23,$I23,$C$3,$J23,$K23,$C$4)*R23</f>
+        <v>-0.47915839520662473</v>
+      </c>
+      <c r="V23" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q23,$P23,$G23,$I23,$C$3,$J23,$K23,$C$4)*R23</f>
+        <v>0.15560103364342837</v>
+      </c>
     </row>
     <row r="24" spans="1:22">
       <c r="A24" s="53"/>
@@ -6040,10 +6917,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B1" s="188" t="s">
+      <c r="B1" s="191" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="182"/>
+      <c r="C1" s="186"/>
     </row>
     <row r="2" spans="1:22" ht="12" thickTop="1">
       <c r="B2" s="37" t="s">
@@ -6174,11 +7051,11 @@
       </c>
       <c r="F8" s="65">
         <f ca="1">TODAY()</f>
-        <v>43125</v>
+        <v>43126</v>
       </c>
       <c r="G8" s="65">
         <f ca="1">F8+I8</f>
-        <v>43155</v>
+        <v>43156</v>
       </c>
       <c r="H8" s="63">
         <v>100</v>
@@ -6242,11 +7119,11 @@
       </c>
       <c r="F9" s="73">
         <f ca="1">F8</f>
-        <v>43125</v>
+        <v>43126</v>
       </c>
       <c r="G9" s="73">
         <f ca="1">G8</f>
-        <v>43155</v>
+        <v>43156</v>
       </c>
       <c r="H9" s="71">
         <v>100</v>
@@ -6310,11 +7187,11 @@
       </c>
       <c r="F10" s="81">
         <f ca="1">F9</f>
-        <v>43125</v>
+        <v>43126</v>
       </c>
       <c r="G10" s="81">
         <f ca="1">G9</f>
-        <v>43155</v>
+        <v>43156</v>
       </c>
       <c r="H10" s="79" t="str">
         <f>H8 &amp; "|" &amp; H9</f>
@@ -7130,10 +8007,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B1" s="182" t="s">
+      <c r="B1" s="186" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="182"/>
+      <c r="C1" s="186"/>
     </row>
     <row r="2" spans="1:25" ht="12" thickTop="1">
       <c r="B2" s="3" t="s">
@@ -7281,7 +8158,7 @@
       </c>
       <c r="H8" s="20">
         <f>RTD("wdf.rtq",,F8,"LastPrice")</f>
-        <v>3966</v>
+        <v>3940</v>
       </c>
       <c r="I8" s="19">
         <v>3800</v>
@@ -7298,11 +8175,11 @@
       </c>
       <c r="M8" s="21">
         <f ca="1">TODAY()</f>
-        <v>43125</v>
+        <v>43126</v>
       </c>
       <c r="N8" s="21">
         <f ca="1">M8+O8</f>
-        <v>43155</v>
+        <v>43156</v>
       </c>
       <c r="O8" s="19">
         <v>30</v>
@@ -7319,22 +8196,22 @@
       </c>
       <c r="S8" s="24">
         <f>_xll.dnetStandardBarrierNGreeks("price",G8,H8,I8,K8,L8*H8,P8,$C$3,Q8,R8,$C$4)*E8</f>
-        <v>-79.320000000000007</v>
+        <v>-78.8</v>
       </c>
       <c r="T8" s="25">
         <v>80</v>
       </c>
       <c r="U8" s="24">
         <f>T8/10000*P8*H8</f>
-        <v>2.6077808219178085</v>
+        <v>2.5906849315068494</v>
       </c>
       <c r="V8" s="24">
         <f>IF(S8&lt;=0,ABS(S8)+U8,S8-U8)</f>
-        <v>81.927780821917821</v>
+        <v>81.39068493150684</v>
       </c>
       <c r="W8" s="26">
         <f>V8/H8</f>
-        <v>2.0657534246575345E-2</v>
+        <v>2.0657534246575342E-2</v>
       </c>
       <c r="X8" s="24">
         <f>_xll.dnetStandardBarrierNGreeks("delta",G8,H8,I8,K8,L8*H8,P8,$C$3,Q8,R8,$C$4)</f>
@@ -7384,11 +8261,11 @@
       </c>
       <c r="M9" s="8">
         <f ca="1">TODAY()</f>
-        <v>43125</v>
+        <v>43126</v>
       </c>
       <c r="N9" s="8">
         <f ca="1">M9+O9</f>
-        <v>43305</v>
+        <v>43306</v>
       </c>
       <c r="O9" s="10">
         <v>180</v>
@@ -9080,10 +9957,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B1" s="189" t="s">
+      <c r="B1" s="192" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="189"/>
+      <c r="C1" s="192"/>
     </row>
     <row r="2" spans="1:21" ht="12" thickTop="1">
       <c r="B2" s="3" t="s">
@@ -9215,18 +10092,18 @@
       </c>
       <c r="H8" s="20">
         <f>RTD("wdf.rtq",,F8,"LastPrice")</f>
-        <v>3966</v>
+        <v>3940</v>
       </c>
       <c r="I8" s="19">
         <v>3800</v>
       </c>
       <c r="J8" s="21">
         <f ca="1">TODAY()</f>
-        <v>43125</v>
+        <v>43126</v>
       </c>
       <c r="K8" s="21">
         <f ca="1">J8+L8</f>
-        <v>43155</v>
+        <v>43156</v>
       </c>
       <c r="L8" s="19">
         <v>30</v>
@@ -9240,30 +10117,30 @@
       </c>
       <c r="O8" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("price",$G8,$H8,$I8,$M8,$C$3,$C$4,$N8)</f>
-        <v>234.22760501465882</v>
+        <v>216.16063769872744</v>
       </c>
       <c r="P8" s="25">
         <v>80</v>
       </c>
       <c r="Q8" s="24">
         <f>P8/10000*M8*H8*(-E8)</f>
-        <v>2.6077808219178085</v>
+        <v>2.5906849315068494</v>
       </c>
       <c r="R8" s="24">
         <f>O8+Q8</f>
-        <v>236.83538583657662</v>
+        <v>218.75132263023428</v>
       </c>
       <c r="S8" s="26">
         <f>R8/H8</f>
-        <v>5.9716436166559916E-2</v>
+        <v>5.5520640261480785E-2</v>
       </c>
       <c r="T8" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$G8,$H8,$I8,$M8,$C$3,$C$4,$N8,$C$4)</f>
-        <v>0.70815228282299358</v>
+        <v>0.68141083320369944</v>
       </c>
       <c r="U8" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$G8,$H8,$I8,$M8,$C$3,$C$4,$N8)</f>
-        <v>3.8962757397814585</v>
+        <v>4.0252650395032106</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -9295,11 +10172,11 @@
       </c>
       <c r="J9" s="8">
         <f ca="1">TODAY()</f>
-        <v>43125</v>
+        <v>43126</v>
       </c>
       <c r="K9" s="8">
         <f ca="1">J9+L9</f>
-        <v>43155</v>
+        <v>43156</v>
       </c>
       <c r="L9" s="10">
         <v>30</v>
@@ -9365,11 +10242,11 @@
       </c>
       <c r="J10" s="8">
         <f ca="1">TODAY()</f>
-        <v>43125</v>
+        <v>43126</v>
       </c>
       <c r="K10" s="8">
         <f ca="1">J10+L10</f>
-        <v>43155</v>
+        <v>43156</v>
       </c>
       <c r="L10" s="10">
         <v>30</v>
